--- a/biology/Botanique/Rosa_foetida/Rosa_foetida.xlsx
+++ b/biology/Botanique/Rosa_foetida/Rosa_foetida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa foetida, le Rosier fétide[réf. nécessaire], Rosier jaune de Perse[1] ou Ronce d'Autriche[réf. nécessaire], est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier originaire du piémont du Caucase en Géorgie et naturalisé en Autriche d'où il fut ramené en 1583 par Charles de L'Écluse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa foetida, le Rosier fétide[réf. nécessaire], Rosier jaune de Perse ou Ronce d'Autriche[réf. nécessaire], est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier originaire du piémont du Caucase en Géorgie et naturalisé en Autriche d'où il fut ramené en 1583 par Charles de L'Écluse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses tiges sont brunes et ses feuilles qui ont 5 à 9 folioles sont vert vif avec un revers velu.
 Ses fleurs jaune vif exhalant un parfum peu marqué, doux et aigre, que certains trouvent désagréable, d'où le nom de l'espèce.
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été cultivée en dehors de son aire d'origine (par exemple, en Grande-Bretagne et aux États-Unis), mais on ne la trouve plus dans les jardins. Elle est particulièrement sensible à la maladie des taches noires.
 C'est une rose importante, dans la mesure où elle est l'origine de la couleur jaune dans les hybrides modernes.
@@ -575,11 +591,13 @@
           <t>Mutations et hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa foetida bicolor ou rosier capucine, est une mutation connue avant le XVIe siècle en Asie mineure qui possède des fleurs jaunes à l'extérieur et cuivre à l'intérieur.
 Rosa foetida persiana ou 'Persan Yellow' cultivé depuis longtemps dans les jardins d'Iran, aux fleurs très doubles jaune d'or
-'Star of Persia', hybride à grandes fleurs semi-doubles jaune d'or[2]
+'Star of Persia', hybride à grandes fleurs semi-doubles jaune d'or
 'Soleil d'Or' (Rosa foetida × 'Antoine Ducher', 1900), qui fut créé par Joseph Pernet-Ducher.
 'Le Rêve' ('Souvenir de Madame Eugène Verdier' x Rosa foetida), rosier grimpant par Joseph Pernet-Ducher.
 tous les premiers hybrides jaunes modernes.</t>
@@ -610,19 +628,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rosa chlorophylla Ehrh.[3]
-Rosa bicolor Jacq., 1771[1],[3]
-Rosa eglanteria var. bicolor (Jacq.) DC., 1805[1]
-Rosa eglanteria var. lutea (Mill.) Thory, 1820[1]
-Rosa eglanteria var. punicea (Mill.) Pers., 1806[1]
-Rosa foetida var. bicolor (Jacq.) E.Willm.[1]
-Rosa lutea var. bicolor (Jacq.) Aiton, 1789[1]
-Rosa lutea var. punicea (Mill.) Moench, 1794[1]
-Rosa lutea Mill., 1768[1],[3]
-Rosa punicea Mill., 1768[1],[3]
+Rosa chlorophylla Ehrh.
+Rosa bicolor Jacq., 1771,
+Rosa eglanteria var. bicolor (Jacq.) DC., 1805
+Rosa eglanteria var. lutea (Mill.) Thory, 1820
+Rosa eglanteria var. punicea (Mill.) Pers., 1806
+Rosa foetida var. bicolor (Jacq.) E.Willm.
+Rosa lutea var. bicolor (Jacq.) Aiton, 1789
+Rosa lutea var. punicea (Mill.) Moench, 1794
+Rosa lutea Mill., 1768,
+Rosa punicea Mill., 1768,
 </t>
         </is>
       </c>
